--- a/Config/Config_sample.xlsx
+++ b/Config/Config_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITLOAIT\Documents\GitHub\OrionLogger\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITDVTVA\Desktop\AitaLogger\OrionLogger\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180BDF0C-8D7F-4A90-8D8E-099D0064564E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309FE693-D782-448C-8D8F-E32F20BB011F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="599" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Strumenti" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="223">
   <si>
     <t>ELENCO STRUMENTI</t>
   </si>
@@ -683,6 +681,33 @@
   </si>
   <si>
     <t>TestColonnineTCP+WT</t>
+  </si>
+  <si>
+    <t>U R INV2</t>
+  </si>
+  <si>
+    <t>I R INV2</t>
+  </si>
+  <si>
+    <t>P R INV2</t>
+  </si>
+  <si>
+    <t>U S INV2</t>
+  </si>
+  <si>
+    <t>I S INV2</t>
+  </si>
+  <si>
+    <t>P S INV2</t>
+  </si>
+  <si>
+    <t>U T INV2</t>
+  </si>
+  <si>
+    <t>I T INV2</t>
+  </si>
+  <si>
+    <t>P T INV2</t>
   </si>
 </sst>
 </file>
@@ -908,7 +933,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -992,7 +1017,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1290,17 +1315,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1354,13 +1379,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1436,25 +1461,25 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.88671875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" style="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="17"/>
+    <col min="17" max="16384" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1507,7 +1532,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="29.4" thickBot="1">
+    <row r="2" spans="1:16" ht="45.75" thickBot="1">
       <c r="A2" s="18" t="s">
         <v>119</v>
       </c>
@@ -1592,7 +1617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" thickBot="1">
+    <row r="4" spans="1:16" ht="15.75" thickBot="1">
       <c r="A4" s="18"/>
       <c r="B4" s="19" t="s">
         <v>121</v>
@@ -1625,7 +1650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" thickBot="1">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1">
       <c r="A5" s="18"/>
       <c r="B5" s="19" t="s">
         <v>122</v>
@@ -1807,7 +1832,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1">
+    <row r="24" spans="1:3" ht="15.75" thickBot="1">
       <c r="A24" s="24"/>
       <c r="B24" s="21" t="s">
         <v>139</v>
@@ -1826,22 +1851,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="34.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="34.5546875" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="34.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="34.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1881,13 +1906,13 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>15</v>
@@ -1911,6 +1936,15 @@
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>215</v>
+      </c>
       <c r="F3" s="6" t="s">
         <v>20</v>
       </c>
@@ -1927,6 +1961,15 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>216</v>
+      </c>
       <c r="F4" s="6" t="s">
         <v>24</v>
       </c>
@@ -1943,6 +1986,15 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>217</v>
+      </c>
       <c r="F5" s="6" t="s">
         <v>28</v>
       </c>
@@ -1959,6 +2011,15 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
       <c r="F6" s="6" t="s">
         <v>32</v>
       </c>
@@ -1975,6 +2036,15 @@
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>219</v>
+      </c>
       <c r="F7" s="6" t="s">
         <v>36</v>
       </c>
@@ -1991,6 +2061,15 @@
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:11">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>220</v>
+      </c>
       <c r="F8" s="6" t="s">
         <v>40</v>
       </c>
@@ -2007,6 +2086,15 @@
       </c>
     </row>
     <row r="9" spans="1:11">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>221</v>
+      </c>
       <c r="F9" s="6" t="s">
         <v>44</v>
       </c>
@@ -2023,6 +2111,15 @@
       </c>
     </row>
     <row r="10" spans="1:11">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>222</v>
+      </c>
       <c r="F10" s="6" t="s">
         <v>48</v>
       </c>
@@ -2268,18 +2365,18 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="34.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2566,7 +2663,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="F16" s="6" t="s">
         <v>61</v>
       </c>
@@ -2618,7 +2715,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="6:9" ht="15" thickBot="1">
+    <row r="20" spans="6:9" ht="15.75" thickBot="1">
       <c r="F20" s="9"/>
       <c r="G20" s="12"/>
       <c r="H20" s="6" t="s">
@@ -2684,7 +2781,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="6:9" ht="15" thickBot="1">
+    <row r="28" spans="6:9" ht="15.75" thickBot="1">
       <c r="H28" s="9" t="s">
         <v>64</v>
       </c>
@@ -2706,15 +2803,15 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="1" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="59" max="59" width="5.44140625" customWidth="1"/>
+    <col min="59" max="59" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3421,12 +3518,12 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="13" customWidth="1"/>
     <col min="2" max="2" width="11" style="13" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="1024" width="9.109375" style="13"/>
+    <col min="3" max="3" width="36.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="1024" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3475,13 +3572,13 @@
       <selection activeCell="G2" sqref="G2:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="13" customWidth="1"/>
     <col min="2" max="4" width="11" style="13" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="1027" width="9.109375" style="13"/>
+    <col min="5" max="5" width="20.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="1027" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3530,7 +3627,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
       <c r="D3" s="30"/>
       <c r="E3" s="31" t="s">
         <v>208</v>
